--- a/biology/Histoire de la zoologie et de la botanique/Édouard_Placide_Duchassaing_de_Fontbressin/Édouard_Placide_Duchassaing_de_Fontbressin.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Édouard_Placide_Duchassaing_de_Fontbressin/Édouard_Placide_Duchassaing_de_Fontbressin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89douard_Placide_Duchassaing_de_Fontbressin</t>
+          <t>Édouard_Placide_Duchassaing_de_Fontbressin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Edmond Placide Duchassaing de Fontbressin[1] est un médecin et un naturaliste français né en 1819 à la Guadeloupe et mort en 1873 à Coulounieix-Chamiers[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Edmond Placide Duchassaing de Fontbressin est un médecin et un naturaliste français né en 1819 à la Guadeloupe et mort en 1873 à Coulounieix-Chamiers.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89douard_Placide_Duchassaing_de_Fontbressin</t>
+          <t>Édouard_Placide_Duchassaing_de_Fontbressin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d’une famille créole de planteurs, il part en France étudier à Paris où il est diplômé de médecine, de géologie et de zoologie. Il exerce d’abord à la Guadeloupe et voyage abondamment dans les îles avoisinantes : Niévès, Saint-Eustache, Saint-Martin, Saint-Barthélemy, Sainte-Croix, Cuba ainsi qu’à Panama. Outre son action comme médecin, il constitue d’importantes collections d’histoire naturelle. Vers 1850, il part à Copenhague pour obtenir un titre de médecin danois qui lui permet de s’installer à Saint-Thomas, alors possession danoise. Il rentrera en France en 1867.
 Duchassaing de Fontbressin est l’auteur de plusieurs publications sur les éponges et les zoophytes dont l’un avec l’italien Giovanni Michelotti (1812-1898).
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89douard_Placide_Duchassaing_de_Fontbressin</t>
+          <t>Édouard_Placide_Duchassaing_de_Fontbressin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications[3]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1844 : Considérations générales sur les faluns, description des terrains tertiaires de la Bretagne et des principaux fossiles qui s'y trouvent (impr. de Lacour et Maistrasse, Paris) – C’est sa thèse de géologie.
 1844 : Recherches sur les formes dans le règne animal et sur les caractères que l'on peut en tirer (impr. de Lacour et Maistrasse, Paris) [numérisé par la Bibliothèque universitaire Pierre et Marie Curie (BUPMC)] – C’est sa thèse de zoologie.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89douard_Placide_Duchassaing_de_Fontbressin</t>
+          <t>Édouard_Placide_Duchassaing_de_Fontbressin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Son nom de famille est graphié de différentes façons : Fombressin (sur le catalogue de la Bibliothèque nationale de France - BNF) ou Fonbressin (sur le site Bemon). La graphie suivie ici correspond à celle de la BNF pour la majorité de ses œuvres.
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89douard_Placide_Duchassaing_de_Fontbressin</t>
+          <t>Édouard_Placide_Duchassaing_de_Fontbressin</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Bemon</t>
         </is>
